--- a/biology/Médecine/Hépatopathie/Hépatopathie.xlsx
+++ b/biology/Médecine/Hépatopathie/Hépatopathie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9patopathie</t>
+          <t>Hépatopathie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une hépatopathie, du grec hepar (foie) et pathos (maladie), est une pathologie affectant le foie[1].
-Les maladies du foie; chroniques ou aiguës) sont nombreuses[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une hépatopathie, du grec hepar (foie) et pathos (maladie), est une pathologie affectant le foie.
+Les maladies du foie; chroniques ou aiguës) sont nombreuses.
 Le foie étant un organe régulateur (du taux de sucre par exemple) et le principal organe de détoxication de l'organisme, ces maladies peuvent être graves.
 Elles relèvent de l'hépatologie et de la gastroentérologie et font partie des maladies hépatobiliaires.
 Étant donné l'importance du foie pour l'organisme, ces maladies affectent généralement l'état de santé générale de l'individu.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9patopathie</t>
+          <t>Hépatopathie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,10 +527,12 @@
           <t>Typologies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lésions du foie ou du système biliaire peuvent avoir des causes variées :
-toxiques : toxines bactériennes (par exemple produites par des cyanobactéries), empoisonnement par des métaux ou métalloïdes, pesticides, chimiques ou médicaments hépatotoxiques, auto empoisonnement par des endotoxines[3], etc.
+toxiques : toxines bactériennes (par exemple produites par des cyanobactéries), empoisonnement par des métaux ou métalloïdes, pesticides, chimiques ou médicaments hépatotoxiques, auto empoisonnement par des endotoxines, etc.
 parasitoses (ex : douve du foie, échinococcose alvéolaire...) ;
 métaboliques (ex : glycogénoses et les lipidoses) ;
 infectieuses (virale ou bactérienne) ;
@@ -528,7 +542,7 @@
 Stéatose hépatique non alcoolique ;
 malformations congénitales
 anomalies vasculaires du foie...
-porphyries hépatiques (qui sont des maladies héréditaires induites chacune par un déficit spécifique en l'un des enzymes participant à la biosynthèse de l'hème, par exemple déficience en ALA déshydratase, HMB synthase ou COPRO oxydase, PROTO oxydase ou URO décarboxylase). La maladie peut se présenter comme une porphyrie aiguë intermittente (AIP), une coproporphyrie héréditaire (en anglais : hereditary coproporphyria, HCP), variegate porphyria (VP) ou porphyria cutanea tarda (PCT)[4]
+porphyries hépatiques (qui sont des maladies héréditaires induites chacune par un déficit spécifique en l'un des enzymes participant à la biosynthèse de l'hème, par exemple déficience en ALA déshydratase, HMB synthase ou COPRO oxydase, PROTO oxydase ou URO décarboxylase). La maladie peut se présenter comme une porphyrie aiguë intermittente (AIP), une coproporphyrie héréditaire (en anglais : hereditary coproporphyria, HCP), variegate porphyria (VP) ou porphyria cutanea tarda (PCT)
 Il peut s'agir de cirrhoses, tumeurs et cancers d'insuffisance hépatique (chroniques, fulminante ou subfulminante) ; de maladies kystiques non-parasitaires.
 Certaines affections du foie sont encore mal expliquées (syndrome de la crise de foie, courante au début du XXe siècle et en forte régression depuis la fin des années 1960).
 </t>
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9patopathie</t>
+          <t>Hépatopathie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,7 +573,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il relève de l'hépatologie et s'appuie sur la recherche de symptômes et signes de lésions (nodulaires ou diffuses) du foie ou d'autres maladies hépatiques.
 Il passe généralement par l'interrogatoire du patient, l'auscultation/palpation, l'examen des bilans urinaires ou sanguins. Il peut s'appuyer sur divers tests biologiques ou moyens d'investigation tels que l'échographie, le scanner en passant par la radiographie ou la biopsie.
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9patopathie</t>
+          <t>Hépatopathie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,8 +609,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(K70-K77) Maladies du foie
-(K70) Maladie alcoolique du foie
+          <t>(K70-K77) Maladies du foie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(K70) Maladie alcoolique du foie
 (K70.0) Cirrhose alcoolique graisseuse
 (K70.1) Hépatite alcoolique
 (K70.2) Fibrose et sclérose alcooliques du foie
@@ -660,7 +681,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9patopathie</t>
+          <t>Hépatopathie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -679,6 +700,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
